--- a/library_management/data/books.xlsx
+++ b/library_management/data/books.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\SQL-Projects\library_management\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A06FAF-4AA7-4F21-9065-59F0037F3736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B729BDD7-2B06-489C-B28F-90E327DD2971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="326">
   <si>
     <t>book_id</t>
   </si>
@@ -712,6 +712,306 @@
   </si>
   <si>
     <t>Historical Mystery</t>
+  </si>
+  <si>
+    <t>B001</t>
+  </si>
+  <si>
+    <t>B002</t>
+  </si>
+  <si>
+    <t>B003</t>
+  </si>
+  <si>
+    <t>B004</t>
+  </si>
+  <si>
+    <t>B005</t>
+  </si>
+  <si>
+    <t>B006</t>
+  </si>
+  <si>
+    <t>B007</t>
+  </si>
+  <si>
+    <t>B008</t>
+  </si>
+  <si>
+    <t>B009</t>
+  </si>
+  <si>
+    <t>B010</t>
+  </si>
+  <si>
+    <t>B011</t>
+  </si>
+  <si>
+    <t>B012</t>
+  </si>
+  <si>
+    <t>B013</t>
+  </si>
+  <si>
+    <t>B014</t>
+  </si>
+  <si>
+    <t>B015</t>
+  </si>
+  <si>
+    <t>B016</t>
+  </si>
+  <si>
+    <t>B017</t>
+  </si>
+  <si>
+    <t>B018</t>
+  </si>
+  <si>
+    <t>B019</t>
+  </si>
+  <si>
+    <t>B020</t>
+  </si>
+  <si>
+    <t>B021</t>
+  </si>
+  <si>
+    <t>B022</t>
+  </si>
+  <si>
+    <t>B023</t>
+  </si>
+  <si>
+    <t>B024</t>
+  </si>
+  <si>
+    <t>B025</t>
+  </si>
+  <si>
+    <t>B026</t>
+  </si>
+  <si>
+    <t>B027</t>
+  </si>
+  <si>
+    <t>B028</t>
+  </si>
+  <si>
+    <t>B029</t>
+  </si>
+  <si>
+    <t>B030</t>
+  </si>
+  <si>
+    <t>B031</t>
+  </si>
+  <si>
+    <t>B032</t>
+  </si>
+  <si>
+    <t>B033</t>
+  </si>
+  <si>
+    <t>B034</t>
+  </si>
+  <si>
+    <t>B035</t>
+  </si>
+  <si>
+    <t>B036</t>
+  </si>
+  <si>
+    <t>B037</t>
+  </si>
+  <si>
+    <t>B038</t>
+  </si>
+  <si>
+    <t>B039</t>
+  </si>
+  <si>
+    <t>B040</t>
+  </si>
+  <si>
+    <t>B041</t>
+  </si>
+  <si>
+    <t>B042</t>
+  </si>
+  <si>
+    <t>B043</t>
+  </si>
+  <si>
+    <t>B044</t>
+  </si>
+  <si>
+    <t>B045</t>
+  </si>
+  <si>
+    <t>B046</t>
+  </si>
+  <si>
+    <t>B047</t>
+  </si>
+  <si>
+    <t>B048</t>
+  </si>
+  <si>
+    <t>B049</t>
+  </si>
+  <si>
+    <t>B050</t>
+  </si>
+  <si>
+    <t>B051</t>
+  </si>
+  <si>
+    <t>B052</t>
+  </si>
+  <si>
+    <t>B053</t>
+  </si>
+  <si>
+    <t>B054</t>
+  </si>
+  <si>
+    <t>B055</t>
+  </si>
+  <si>
+    <t>B056</t>
+  </si>
+  <si>
+    <t>B057</t>
+  </si>
+  <si>
+    <t>B058</t>
+  </si>
+  <si>
+    <t>B059</t>
+  </si>
+  <si>
+    <t>B060</t>
+  </si>
+  <si>
+    <t>B061</t>
+  </si>
+  <si>
+    <t>B062</t>
+  </si>
+  <si>
+    <t>B063</t>
+  </si>
+  <si>
+    <t>B064</t>
+  </si>
+  <si>
+    <t>B065</t>
+  </si>
+  <si>
+    <t>B066</t>
+  </si>
+  <si>
+    <t>B067</t>
+  </si>
+  <si>
+    <t>B068</t>
+  </si>
+  <si>
+    <t>B069</t>
+  </si>
+  <si>
+    <t>B070</t>
+  </si>
+  <si>
+    <t>B071</t>
+  </si>
+  <si>
+    <t>B072</t>
+  </si>
+  <si>
+    <t>B073</t>
+  </si>
+  <si>
+    <t>B074</t>
+  </si>
+  <si>
+    <t>B075</t>
+  </si>
+  <si>
+    <t>B076</t>
+  </si>
+  <si>
+    <t>B077</t>
+  </si>
+  <si>
+    <t>B078</t>
+  </si>
+  <si>
+    <t>B079</t>
+  </si>
+  <si>
+    <t>B080</t>
+  </si>
+  <si>
+    <t>B081</t>
+  </si>
+  <si>
+    <t>B082</t>
+  </si>
+  <si>
+    <t>B083</t>
+  </si>
+  <si>
+    <t>B084</t>
+  </si>
+  <si>
+    <t>B085</t>
+  </si>
+  <si>
+    <t>B086</t>
+  </si>
+  <si>
+    <t>B087</t>
+  </si>
+  <si>
+    <t>B088</t>
+  </si>
+  <si>
+    <t>B089</t>
+  </si>
+  <si>
+    <t>B090</t>
+  </si>
+  <si>
+    <t>B091</t>
+  </si>
+  <si>
+    <t>B092</t>
+  </si>
+  <si>
+    <t>B093</t>
+  </si>
+  <si>
+    <t>B094</t>
+  </si>
+  <si>
+    <t>B095</t>
+  </si>
+  <si>
+    <t>B096</t>
+  </si>
+  <si>
+    <t>B097</t>
+  </si>
+  <si>
+    <t>B098</t>
+  </si>
+  <si>
+    <t>B099</t>
+  </si>
+  <si>
+    <t>B100</t>
   </si>
 </sst>
 </file>
@@ -1042,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1072,8 +1372,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>226</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1089,9 +1389,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <f>A2 + 1</f>
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>227</v>
       </c>
       <c r="B3">
         <v>1984</v>
@@ -1107,9 +1406,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <f t="shared" ref="A4:A67" si="0">A3 + 1</f>
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>228</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1125,9 +1423,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>229</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1143,9 +1440,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>230</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -1161,9 +1457,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>231</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -1179,9 +1474,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>232</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -1197,9 +1491,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
+      <c r="A9" t="s">
+        <v>233</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -1215,9 +1508,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
+      <c r="A10" t="s">
+        <v>234</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
@@ -1233,9 +1525,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
+      <c r="A11" t="s">
+        <v>235</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -1251,9 +1542,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>11</v>
+      <c r="A12" t="s">
+        <v>236</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
@@ -1269,9 +1559,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>12</v>
+      <c r="A13" t="s">
+        <v>237</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -1287,9 +1576,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>13</v>
+      <c r="A14" t="s">
+        <v>238</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
@@ -1305,9 +1593,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>14</v>
+      <c r="A15" t="s">
+        <v>239</v>
       </c>
       <c r="B15" t="s">
         <v>48</v>
@@ -1323,9 +1610,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>15</v>
+      <c r="A16" t="s">
+        <v>240</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
@@ -1341,9 +1627,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>16</v>
+      <c r="A17" t="s">
+        <v>241</v>
       </c>
       <c r="B17" t="s">
         <v>51</v>
@@ -1359,9 +1644,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>17</v>
+      <c r="A18" t="s">
+        <v>242</v>
       </c>
       <c r="B18" t="s">
         <v>57</v>
@@ -1377,9 +1661,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>18</v>
+      <c r="A19" t="s">
+        <v>243</v>
       </c>
       <c r="B19" t="s">
         <v>59</v>
@@ -1395,9 +1678,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>19</v>
+      <c r="A20" t="s">
+        <v>244</v>
       </c>
       <c r="B20" t="s">
         <v>61</v>
@@ -1413,9 +1695,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>20</v>
+      <c r="A21" t="s">
+        <v>245</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
@@ -1431,9 +1712,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>21</v>
+      <c r="A22" t="s">
+        <v>246</v>
       </c>
       <c r="B22" t="s">
         <v>74</v>
@@ -1449,9 +1729,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>22</v>
+      <c r="A23" t="s">
+        <v>247</v>
       </c>
       <c r="B23" t="s">
         <v>76</v>
@@ -1467,9 +1746,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>23</v>
+      <c r="A24" t="s">
+        <v>248</v>
       </c>
       <c r="B24" t="s">
         <v>79</v>
@@ -1485,9 +1763,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>24</v>
+      <c r="A25" t="s">
+        <v>249</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
@@ -1503,9 +1780,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>25</v>
+      <c r="A26" t="s">
+        <v>250</v>
       </c>
       <c r="B26" t="s">
         <v>81</v>
@@ -1521,9 +1797,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>26</v>
+      <c r="A27" t="s">
+        <v>251</v>
       </c>
       <c r="B27" t="s">
         <v>90</v>
@@ -1539,9 +1814,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>27</v>
+      <c r="A28" t="s">
+        <v>252</v>
       </c>
       <c r="B28" t="s">
         <v>92</v>
@@ -1557,9 +1831,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>28</v>
+      <c r="A29" t="s">
+        <v>253</v>
       </c>
       <c r="B29" t="s">
         <v>94</v>
@@ -1575,9 +1848,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>29</v>
+      <c r="A30" t="s">
+        <v>254</v>
       </c>
       <c r="B30" t="s">
         <v>96</v>
@@ -1593,9 +1865,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>30</v>
+      <c r="A31" t="s">
+        <v>255</v>
       </c>
       <c r="B31" t="s">
         <v>99</v>
@@ -1611,9 +1882,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>31</v>
+      <c r="A32" t="s">
+        <v>256</v>
       </c>
       <c r="B32" t="s">
         <v>53</v>
@@ -1629,9 +1899,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>32</v>
+      <c r="A33" t="s">
+        <v>257</v>
       </c>
       <c r="B33" t="s">
         <v>101</v>
@@ -1647,9 +1916,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>33</v>
+      <c r="A34" t="s">
+        <v>258</v>
       </c>
       <c r="B34" t="s">
         <v>103</v>
@@ -1665,9 +1933,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>34</v>
+      <c r="A35" t="s">
+        <v>259</v>
       </c>
       <c r="B35" t="s">
         <v>106</v>
@@ -1683,9 +1950,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>35</v>
+      <c r="A36" t="s">
+        <v>260</v>
       </c>
       <c r="B36" t="s">
         <v>109</v>
@@ -1701,9 +1967,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>36</v>
+      <c r="A37" t="s">
+        <v>261</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
@@ -1719,9 +1984,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>37</v>
+      <c r="A38" t="s">
+        <v>262</v>
       </c>
       <c r="B38" t="s">
         <v>112</v>
@@ -1737,9 +2001,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>38</v>
+      <c r="A39" t="s">
+        <v>263</v>
       </c>
       <c r="B39" t="s">
         <v>114</v>
@@ -1755,9 +2018,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>39</v>
+      <c r="A40" t="s">
+        <v>264</v>
       </c>
       <c r="B40" t="s">
         <v>46</v>
@@ -1773,9 +2035,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>40</v>
+      <c r="A41" t="s">
+        <v>265</v>
       </c>
       <c r="B41" t="s">
         <v>63</v>
@@ -1791,9 +2052,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <f t="shared" si="0"/>
-        <v>41</v>
+      <c r="A42" t="s">
+        <v>266</v>
       </c>
       <c r="B42" t="s">
         <v>116</v>
@@ -1809,9 +2069,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <f t="shared" si="0"/>
-        <v>42</v>
+      <c r="A43" t="s">
+        <v>267</v>
       </c>
       <c r="B43" t="s">
         <v>83</v>
@@ -1827,9 +2086,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <f t="shared" si="0"/>
-        <v>43</v>
+      <c r="A44" t="s">
+        <v>268</v>
       </c>
       <c r="B44" t="s">
         <v>118</v>
@@ -1845,9 +2103,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <f t="shared" si="0"/>
-        <v>44</v>
+      <c r="A45" t="s">
+        <v>269</v>
       </c>
       <c r="B45" t="s">
         <v>88</v>
@@ -1863,9 +2120,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <f t="shared" si="0"/>
-        <v>45</v>
+      <c r="A46" t="s">
+        <v>270</v>
       </c>
       <c r="B46" t="s">
         <v>85</v>
@@ -1881,9 +2137,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <f t="shared" si="0"/>
-        <v>46</v>
+      <c r="A47" t="s">
+        <v>271</v>
       </c>
       <c r="B47" t="s">
         <v>120</v>
@@ -1899,9 +2154,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <f t="shared" si="0"/>
-        <v>47</v>
+      <c r="A48" t="s">
+        <v>272</v>
       </c>
       <c r="B48" t="s">
         <v>66</v>
@@ -1917,9 +2171,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <f t="shared" si="0"/>
-        <v>48</v>
+      <c r="A49" t="s">
+        <v>273</v>
       </c>
       <c r="B49" t="s">
         <v>69</v>
@@ -1935,9 +2188,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <f t="shared" si="0"/>
-        <v>49</v>
+      <c r="A50" t="s">
+        <v>274</v>
       </c>
       <c r="B50" t="s">
         <v>122</v>
@@ -1953,9 +2205,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <f t="shared" si="0"/>
-        <v>50</v>
+      <c r="A51" t="s">
+        <v>275</v>
       </c>
       <c r="B51" t="s">
         <v>124</v>
@@ -1971,9 +2222,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <f t="shared" si="0"/>
-        <v>51</v>
+      <c r="A52" t="s">
+        <v>276</v>
       </c>
       <c r="B52" t="s">
         <v>126</v>
@@ -1989,9 +2239,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <f t="shared" si="0"/>
-        <v>52</v>
+      <c r="A53" t="s">
+        <v>277</v>
       </c>
       <c r="B53" t="s">
         <v>128</v>
@@ -2007,9 +2256,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <f t="shared" si="0"/>
-        <v>53</v>
+      <c r="A54" t="s">
+        <v>278</v>
       </c>
       <c r="B54" t="s">
         <v>130</v>
@@ -2025,9 +2273,8 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <f t="shared" si="0"/>
-        <v>54</v>
+      <c r="A55" t="s">
+        <v>279</v>
       </c>
       <c r="B55" t="s">
         <v>132</v>
@@ -2043,9 +2290,8 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <f t="shared" si="0"/>
-        <v>55</v>
+      <c r="A56" t="s">
+        <v>280</v>
       </c>
       <c r="B56" t="s">
         <v>134</v>
@@ -2061,9 +2307,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <f t="shared" si="0"/>
-        <v>56</v>
+      <c r="A57" t="s">
+        <v>281</v>
       </c>
       <c r="B57" t="s">
         <v>136</v>
@@ -2079,9 +2324,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <f t="shared" si="0"/>
-        <v>57</v>
+      <c r="A58" t="s">
+        <v>282</v>
       </c>
       <c r="B58" t="s">
         <v>138</v>
@@ -2097,9 +2341,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <f t="shared" si="0"/>
-        <v>58</v>
+      <c r="A59" t="s">
+        <v>283</v>
       </c>
       <c r="B59" t="s">
         <v>141</v>
@@ -2115,9 +2358,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <f t="shared" si="0"/>
-        <v>59</v>
+      <c r="A60" t="s">
+        <v>284</v>
       </c>
       <c r="B60" t="s">
         <v>143</v>
@@ -2133,9 +2375,8 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <f t="shared" si="0"/>
-        <v>60</v>
+      <c r="A61" t="s">
+        <v>285</v>
       </c>
       <c r="B61" t="s">
         <v>145</v>
@@ -2151,9 +2392,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <f t="shared" si="0"/>
-        <v>61</v>
+      <c r="A62" t="s">
+        <v>286</v>
       </c>
       <c r="B62" t="s">
         <v>147</v>
@@ -2169,9 +2409,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <f t="shared" si="0"/>
-        <v>62</v>
+      <c r="A63" t="s">
+        <v>287</v>
       </c>
       <c r="B63" t="s">
         <v>150</v>
@@ -2187,9 +2426,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <f t="shared" si="0"/>
-        <v>63</v>
+      <c r="A64" t="s">
+        <v>288</v>
       </c>
       <c r="B64" t="s">
         <v>152</v>
@@ -2205,9 +2443,8 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <f t="shared" si="0"/>
-        <v>64</v>
+      <c r="A65" t="s">
+        <v>289</v>
       </c>
       <c r="B65" t="s">
         <v>154</v>
@@ -2223,9 +2460,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <f t="shared" si="0"/>
-        <v>65</v>
+      <c r="A66" t="s">
+        <v>290</v>
       </c>
       <c r="B66" t="s">
         <v>156</v>
@@ -2241,9 +2477,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <f t="shared" si="0"/>
-        <v>66</v>
+      <c r="A67" t="s">
+        <v>291</v>
       </c>
       <c r="B67" t="s">
         <v>158</v>
@@ -2259,9 +2494,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68">
-        <f t="shared" ref="A68:A101" si="1">A67 + 1</f>
-        <v>67</v>
+      <c r="A68" t="s">
+        <v>292</v>
       </c>
       <c r="B68" t="s">
         <v>160</v>
@@ -2277,9 +2511,8 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <f t="shared" si="1"/>
-        <v>68</v>
+      <c r="A69" t="s">
+        <v>293</v>
       </c>
       <c r="B69" t="s">
         <v>162</v>
@@ -2295,9 +2528,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <f t="shared" si="1"/>
-        <v>69</v>
+      <c r="A70" t="s">
+        <v>294</v>
       </c>
       <c r="B70" t="s">
         <v>164</v>
@@ -2313,9 +2545,8 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <f t="shared" si="1"/>
-        <v>70</v>
+      <c r="A71" t="s">
+        <v>295</v>
       </c>
       <c r="B71" t="s">
         <v>165</v>
@@ -2331,9 +2562,8 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72">
-        <f t="shared" si="1"/>
-        <v>71</v>
+      <c r="A72" t="s">
+        <v>296</v>
       </c>
       <c r="B72" t="s">
         <v>167</v>
@@ -2349,9 +2579,8 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73">
-        <f t="shared" si="1"/>
-        <v>72</v>
+      <c r="A73" t="s">
+        <v>297</v>
       </c>
       <c r="B73" t="s">
         <v>169</v>
@@ -2367,9 +2596,8 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74">
-        <f t="shared" si="1"/>
-        <v>73</v>
+      <c r="A74" t="s">
+        <v>298</v>
       </c>
       <c r="B74" t="s">
         <v>171</v>
@@ -2385,9 +2613,8 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75">
-        <f t="shared" si="1"/>
-        <v>74</v>
+      <c r="A75" t="s">
+        <v>299</v>
       </c>
       <c r="B75" t="s">
         <v>173</v>
@@ -2403,9 +2630,8 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76">
-        <f t="shared" si="1"/>
-        <v>75</v>
+      <c r="A76" t="s">
+        <v>300</v>
       </c>
       <c r="B76" t="s">
         <v>175</v>
@@ -2421,9 +2647,8 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77">
-        <f t="shared" si="1"/>
-        <v>76</v>
+      <c r="A77" t="s">
+        <v>301</v>
       </c>
       <c r="B77" t="s">
         <v>177</v>
@@ -2439,9 +2664,8 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78">
-        <f t="shared" si="1"/>
-        <v>77</v>
+      <c r="A78" t="s">
+        <v>302</v>
       </c>
       <c r="B78" t="s">
         <v>179</v>
@@ -2457,9 +2681,8 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79">
-        <f t="shared" si="1"/>
-        <v>78</v>
+      <c r="A79" t="s">
+        <v>303</v>
       </c>
       <c r="B79" t="s">
         <v>181</v>
@@ -2475,9 +2698,8 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80">
-        <f t="shared" si="1"/>
-        <v>79</v>
+      <c r="A80" t="s">
+        <v>304</v>
       </c>
       <c r="B80" t="s">
         <v>183</v>
@@ -2493,9 +2715,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81">
-        <f t="shared" si="1"/>
-        <v>80</v>
+      <c r="A81" t="s">
+        <v>305</v>
       </c>
       <c r="B81" t="s">
         <v>185</v>
@@ -2511,9 +2732,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82">
-        <f t="shared" si="1"/>
-        <v>81</v>
+      <c r="A82" t="s">
+        <v>306</v>
       </c>
       <c r="B82" t="s">
         <v>186</v>
@@ -2529,9 +2749,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83">
-        <f t="shared" si="1"/>
-        <v>82</v>
+      <c r="A83" t="s">
+        <v>307</v>
       </c>
       <c r="B83" t="s">
         <v>188</v>
@@ -2547,9 +2766,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84">
-        <f t="shared" si="1"/>
-        <v>83</v>
+      <c r="A84" t="s">
+        <v>308</v>
       </c>
       <c r="B84" t="s">
         <v>190</v>
@@ -2565,9 +2783,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85">
-        <f t="shared" si="1"/>
-        <v>84</v>
+      <c r="A85" t="s">
+        <v>309</v>
       </c>
       <c r="B85" t="s">
         <v>192</v>
@@ -2583,9 +2800,8 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86">
-        <f t="shared" si="1"/>
-        <v>85</v>
+      <c r="A86" t="s">
+        <v>310</v>
       </c>
       <c r="B86" t="s">
         <v>194</v>
@@ -2601,9 +2817,8 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87">
-        <f t="shared" si="1"/>
-        <v>86</v>
+      <c r="A87" t="s">
+        <v>311</v>
       </c>
       <c r="B87" t="s">
         <v>196</v>
@@ -2619,9 +2834,8 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88">
-        <f t="shared" si="1"/>
-        <v>87</v>
+      <c r="A88" t="s">
+        <v>312</v>
       </c>
       <c r="B88" t="s">
         <v>199</v>
@@ -2637,9 +2851,8 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89">
-        <f t="shared" si="1"/>
-        <v>88</v>
+      <c r="A89" t="s">
+        <v>313</v>
       </c>
       <c r="B89" t="s">
         <v>200</v>
@@ -2655,9 +2868,8 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90">
-        <f t="shared" si="1"/>
-        <v>89</v>
+      <c r="A90" t="s">
+        <v>314</v>
       </c>
       <c r="B90" t="s">
         <v>202</v>
@@ -2673,9 +2885,8 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91">
-        <f t="shared" si="1"/>
-        <v>90</v>
+      <c r="A91" t="s">
+        <v>315</v>
       </c>
       <c r="B91" t="s">
         <v>204</v>
@@ -2691,9 +2902,8 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92">
-        <f t="shared" si="1"/>
-        <v>91</v>
+      <c r="A92" t="s">
+        <v>316</v>
       </c>
       <c r="B92" t="s">
         <v>206</v>
@@ -2709,9 +2919,8 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93">
-        <f t="shared" si="1"/>
-        <v>92</v>
+      <c r="A93" t="s">
+        <v>317</v>
       </c>
       <c r="B93" t="s">
         <v>208</v>
@@ -2727,9 +2936,8 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94">
-        <f t="shared" si="1"/>
-        <v>93</v>
+      <c r="A94" t="s">
+        <v>318</v>
       </c>
       <c r="B94" t="s">
         <v>210</v>
@@ -2745,9 +2953,8 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95">
-        <f t="shared" si="1"/>
-        <v>94</v>
+      <c r="A95" t="s">
+        <v>319</v>
       </c>
       <c r="B95" t="s">
         <v>212</v>
@@ -2763,9 +2970,8 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96">
-        <f t="shared" si="1"/>
-        <v>95</v>
+      <c r="A96" t="s">
+        <v>320</v>
       </c>
       <c r="B96" t="s">
         <v>214</v>
@@ -2781,9 +2987,8 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97">
-        <f t="shared" si="1"/>
-        <v>96</v>
+      <c r="A97" t="s">
+        <v>321</v>
       </c>
       <c r="B97" t="s">
         <v>216</v>
@@ -2799,9 +3004,8 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98">
-        <f t="shared" si="1"/>
-        <v>97</v>
+      <c r="A98" t="s">
+        <v>322</v>
       </c>
       <c r="B98" t="s">
         <v>218</v>
@@ -2817,9 +3021,8 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99">
-        <f t="shared" si="1"/>
-        <v>98</v>
+      <c r="A99" t="s">
+        <v>323</v>
       </c>
       <c r="B99" t="s">
         <v>220</v>
@@ -2835,9 +3038,8 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100">
-        <f t="shared" si="1"/>
-        <v>99</v>
+      <c r="A100" t="s">
+        <v>324</v>
       </c>
       <c r="B100" t="s">
         <v>221</v>
@@ -2853,9 +3055,8 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101">
-        <f t="shared" si="1"/>
-        <v>100</v>
+      <c r="A101" t="s">
+        <v>325</v>
       </c>
       <c r="B101" t="s">
         <v>223</v>
